--- a/src/main/resources/spec/struct/form1.xlsx
+++ b/src/main/resources/spec/struct/form1.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
   <si>
     <t>Sl No</t>
   </si>
   <si>
     <t>Feature</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
   <si>
     <t>Note</t>
@@ -41,9 +44,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>userIdFieldName</t>
   </si>
   <si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>references to otherdocuments ofrelevance to this form</t>
+  </si>
+  <si>
+    <t>customerId</t>
   </si>
   <si>
     <t>name of the field that has the unique id of the user to whom this form belongs to. For example customerId</t>
@@ -144,9 +147,6 @@
   </si>
   <si>
     <t>Is Key Field</t>
-  </si>
-  <si>
-    <t>customerId</t>
   </si>
   <si>
     <t>Customer Id</t>
@@ -254,7 +254,16 @@
     <t>current FY</t>
   </si>
   <si>
+    <t>From Field</t>
+  </si>
+  <si>
     <t>tableName</t>
+  </si>
+  <si>
+    <t>To Field</t>
+  </si>
+  <si>
+    <t>Equal Value Ok</t>
   </si>
   <si>
     <t>Form Name</t>
@@ -266,6 +275,9 @@
     <t>Max Rows</t>
   </si>
   <si>
+    <t>fromdate</t>
+  </si>
+  <si>
     <t>orderLines</t>
   </si>
   <si>
@@ -275,22 +287,10 @@
     <t xml:space="preserve">Order lines </t>
   </si>
   <si>
-    <t>form2</t>
+    <t>invalidDateRange</t>
   </si>
   <si>
-    <t>From Field</t>
-  </si>
-  <si>
-    <t>To Field</t>
-  </si>
-  <si>
-    <t>Equal Value Ok</t>
-  </si>
-  <si>
-    <t>fromdate</t>
-  </si>
-  <si>
-    <t>invalidDateRange</t>
+    <t>form2</t>
   </si>
   <si>
     <t>Main Field</t>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -11301,10 +11301,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -11328,9 +11328,11 @@
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -11352,13 +11354,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -11380,13 +11382,13 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -11408,13 +11410,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -11436,13 +11438,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -11464,11 +11466,11 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -11490,11 +11492,11 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -11516,11 +11518,11 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -11542,11 +11544,11 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -11568,11 +11570,11 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -11594,11 +11596,11 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -17026,42 +17028,42 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>41</v>
@@ -17073,7 +17075,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="b">
         <v>1</v>
@@ -18335,36 +18337,36 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E2" s="6">
         <v>1.0</v>
@@ -19394,21 +19396,21 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>59</v>
@@ -19417,7 +19419,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
@@ -20447,10 +20449,10 @@
         <v>90</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1"/>
@@ -21481,10 +21483,10 @@
         <v>91</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1"/>
@@ -22511,7 +22513,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">

--- a/src/main/resources/spec/struct/form1.xlsx
+++ b/src/main/resources/spec/struct/form1.xlsx
@@ -17,14 +17,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mi++859wDeOou3bp0KR17Hf+rz16A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mj5q4lD2qve3xRX4hy7+vU8ONF6dw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
   <si>
     <t>Sl No</t>
   </si>
@@ -32,10 +32,10 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Reference</t>
+    <t>Note</t>
   </si>
   <si>
-    <t>Note</t>
+    <t>Reference</t>
   </si>
   <si>
     <t>Value</t>
@@ -47,9 +47,6 @@
     <t>userIdFieldName</t>
   </si>
   <si>
-    <t>All notes,including Q&amp;A about this form</t>
-  </si>
-  <si>
     <t>references to otherdocuments ofrelevance to this form</t>
   </si>
   <si>
@@ -59,19 +56,22 @@
     <t>name of the field that has the unique id of the user to whom this form belongs to. For example customerId</t>
   </si>
   <si>
-    <t>getAllowed</t>
+    <t>createGetService</t>
+  </si>
+  <si>
+    <t>All notes,including Q&amp;A about this form</t>
   </si>
   <si>
     <t>if set to true, this form can be requested reading by the client</t>
   </si>
   <si>
-    <t>saveAllowed</t>
+    <t>createSaveService</t>
   </si>
   <si>
     <t>if set to true, client can send data to be saved (not submit)</t>
   </si>
   <si>
-    <t>submitAllowed</t>
+    <t>createSubmitService</t>
   </si>
   <si>
     <t>if set totrue, client send data forsave and submit</t>
@@ -86,10 +86,16 @@
     <t>preGetProcessor</t>
   </si>
   <si>
+    <t>Junk1</t>
+  </si>
+  <si>
     <t>any special processing logic to be implemented BEFORE retrieving the form? description is provided by BA. programmers provides the java class name as value in the previous cell</t>
   </si>
   <si>
     <t>postGetProcessor</t>
+  </si>
+  <si>
+    <t>Junk2</t>
   </si>
   <si>
     <t>any special processing logic to be implemented AFTER retrieving the form? description is provided by BA. programmers provides the java class name as value in the previous cell</t>
@@ -98,10 +104,16 @@
     <t>preSaveProcessor</t>
   </si>
   <si>
+    <t>Junk3</t>
+  </si>
+  <si>
     <t>any special processing logic to be implemented BEFORE saving the form? description is provided by BA. programmers provides the java class name as value in the previous cell</t>
   </si>
   <si>
     <t>postSaveProcessor</t>
+  </si>
+  <si>
+    <t>Junk4</t>
   </si>
   <si>
     <t>any special processing logic to be implemented AFTER saving the form? description is provided by BA. programmers provides the java class name as value in the previous cell</t>
@@ -110,16 +122,25 @@
     <t>preSubmitProcessor</t>
   </si>
   <si>
+    <t>Junk5</t>
+  </si>
+  <si>
     <t>any special processing logic to be implemented BEFORE submitting the form? description is provided by BA. programmers provides the java class name as value in the previous cell</t>
   </si>
   <si>
     <t>postSubmitProcessor</t>
   </si>
   <si>
+    <t>Junk6</t>
+  </si>
+  <si>
     <t>any special processing logic to be implemented AFTER submitting the form? description is provided by BA. programmers provides the java class name as value in the previous cell</t>
   </si>
   <si>
     <t>Field Name</t>
+  </si>
+  <si>
+    <t>tableName</t>
   </si>
   <si>
     <t>Label</t>
@@ -134,13 +155,25 @@
     <t>Is Required</t>
   </si>
   <si>
+    <t>Form Name</t>
+  </si>
+  <si>
     <t>Default Value</t>
+  </si>
+  <si>
+    <t>Min Rows</t>
   </si>
   <si>
     <t>Error Message Id</t>
   </si>
   <si>
+    <t>Max Rows</t>
+  </si>
+  <si>
     <t>Is Editable</t>
+  </si>
+  <si>
+    <t>Error Id for lines Validation</t>
   </si>
   <si>
     <t>Is Derived</t>
@@ -149,13 +182,28 @@
     <t>Is Key Field</t>
   </si>
   <si>
+    <t>orderLines</t>
+  </si>
+  <si>
     <t>Customer Id</t>
+  </si>
+  <si>
+    <t>Order Lines</t>
   </si>
   <si>
     <t>Customer id can be found at the corner of your invoice</t>
   </si>
   <si>
+    <t xml:space="preserve">Order lines </t>
+  </si>
+  <si>
     <t>customer id</t>
+  </si>
+  <si>
+    <t>form2</t>
+  </si>
+  <si>
+    <t>wrongLines</t>
   </si>
   <si>
     <t>finacialYear</t>
@@ -171,6 +219,24 @@
   </si>
   <si>
     <t>fy</t>
+  </si>
+  <si>
+    <t>From Field</t>
+  </si>
+  <si>
+    <t>To Field</t>
+  </si>
+  <si>
+    <t>Equal Value Ok</t>
+  </si>
+  <si>
+    <t>fromdate</t>
+  </si>
+  <si>
+    <t>toDate</t>
+  </si>
+  <si>
+    <t>invalidDateRange</t>
   </si>
   <si>
     <t>boolField</t>
@@ -201,9 +267,6 @@
   </si>
   <si>
     <t>futureDate</t>
-  </si>
-  <si>
-    <t>toDate</t>
   </si>
   <si>
     <t>To Date</t>
@@ -252,45 +315,6 @@
   </si>
   <si>
     <t>current FY</t>
-  </si>
-  <si>
-    <t>From Field</t>
-  </si>
-  <si>
-    <t>tableName</t>
-  </si>
-  <si>
-    <t>To Field</t>
-  </si>
-  <si>
-    <t>Equal Value Ok</t>
-  </si>
-  <si>
-    <t>Form Name</t>
-  </si>
-  <si>
-    <t>Min Rows</t>
-  </si>
-  <si>
-    <t>Max Rows</t>
-  </si>
-  <si>
-    <t>fromdate</t>
-  </si>
-  <si>
-    <t>orderLines</t>
-  </si>
-  <si>
-    <t>Order Lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order lines </t>
-  </si>
-  <si>
-    <t>invalidDateRange</t>
-  </si>
-  <si>
-    <t>form2</t>
   </si>
   <si>
     <t>Main Field</t>
@@ -367,14 +391,14 @@
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -442,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -465,7 +489,7 @@
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5871,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -5894,7 +5918,7 @@
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -11290,7 +11314,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.71"/>
+    <col customWidth="1" min="1" max="1" width="26.86"/>
     <col customWidth="1" min="2" max="2" width="12.0"/>
     <col customWidth="1" min="3" max="3" width="92.29"/>
     <col customWidth="1" min="4" max="7" width="14.43"/>
@@ -11329,10 +11353,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -11354,7 +11378,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="b">
         <v>1</v>
@@ -11468,9 +11492,11 @@
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -11492,11 +11518,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -11518,11 +11546,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -11544,11 +11574,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -11570,11 +11602,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -11596,11 +11630,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -17028,298 +17064,298 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
+      <c r="A2" s="7" t="s">
+        <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>41</v>
+      <c r="B2" s="7" t="s">
+        <v>53</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>42</v>
+      <c r="C2" s="7" t="s">
+        <v>55</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>43</v>
+      <c r="D2" s="7" t="s">
+        <v>57</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
       </c>
-      <c r="F2" s="6" t="b">
+      <c r="F2" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="6" t="b">
+      <c r="I2" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="6" t="b">
+      <c r="J2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="b">
+      <c r="K2" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>44</v>
+      <c r="A3" s="7" t="s">
+        <v>60</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>45</v>
+      <c r="B3" s="7" t="s">
+        <v>61</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>46</v>
+      <c r="C3" s="7" t="s">
+        <v>62</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>47</v>
+      <c r="D3" s="7" t="s">
+        <v>63</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>48</v>
+      <c r="E3" s="9" t="s">
+        <v>64</v>
       </c>
-      <c r="F3" s="6" t="b">
+      <c r="F3" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="I3" s="6" t="b">
+      <c r="G3" s="7"/>
+      <c r="I3" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="6" t="b">
+      <c r="J3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="b">
+      <c r="K3" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>49</v>
+      <c r="A4" s="7" t="s">
+        <v>71</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>50</v>
+      <c r="B4" s="7" t="s">
+        <v>72</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>51</v>
+      <c r="C4" s="7" t="s">
+        <v>73</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>52</v>
+      <c r="D4" s="7" t="s">
+        <v>74</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>53</v>
+      <c r="E4" s="7" t="s">
+        <v>75</v>
       </c>
-      <c r="F4" s="6" t="b">
+      <c r="F4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="6" t="b">
+      <c r="I4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="6" t="b">
+      <c r="J4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="b">
+      <c r="K4" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>54</v>
+      <c r="A5" s="7" t="s">
+        <v>76</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>55</v>
+      <c r="B5" s="7" t="s">
+        <v>77</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>56</v>
+      <c r="C5" s="7" t="s">
+        <v>78</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>57</v>
+      <c r="D5" s="7" t="s">
+        <v>79</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>58</v>
+      <c r="E5" s="7" t="s">
+        <v>80</v>
       </c>
-      <c r="F5" s="6" t="b">
+      <c r="F5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="6" t="b">
+      <c r="I5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="6" t="b">
+      <c r="J5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="b">
+      <c r="K5" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>59</v>
+      <c r="A6" s="7" t="s">
+        <v>69</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>60</v>
+      <c r="B6" s="7" t="s">
+        <v>81</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>61</v>
+      <c r="C6" s="7" t="s">
+        <v>82</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>62</v>
+      <c r="D6" s="7" t="s">
+        <v>83</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>58</v>
+      <c r="E6" s="7" t="s">
+        <v>80</v>
       </c>
-      <c r="F6" s="6" t="b">
+      <c r="F6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="6" t="b">
+      <c r="I6" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="6" t="b">
+      <c r="J6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="b">
+      <c r="K6" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>63</v>
+      <c r="A7" s="7" t="s">
+        <v>84</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>33.0</v>
+      </c>
+      <c r="I7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="I8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>33.0</v>
-      </c>
-      <c r="I7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6" t="b">
+      <c r="F10" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="b">
+      <c r="I10" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="6" t="b">
+      <c r="J10" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="I8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6" t="b">
+      <c r="K10" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -18333,46 +18369,53 @@
     <col customWidth="1" min="3" max="3" width="23.43"/>
     <col customWidth="1" min="4" max="4" width="15.29"/>
     <col customWidth="1" min="5" max="6" width="14.43"/>
+    <col customWidth="1" min="7" max="7" width="28.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>84</v>
+      <c r="A2" s="7" t="s">
+        <v>52</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>85</v>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>86</v>
+      <c r="C2" s="7" t="s">
+        <v>56</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>88</v>
+      <c r="D2" s="7" t="s">
+        <v>58</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>1.0</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>200.0</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
@@ -19396,30 +19439,30 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>83</v>
+      <c r="A2" s="7" t="s">
+        <v>68</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>59</v>
+      <c r="B2" s="7" t="s">
+        <v>69</v>
       </c>
-      <c r="C2" s="6" t="b">
+      <c r="C2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>87</v>
+      <c r="D2" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
@@ -20443,16 +20486,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1"/>
@@ -21477,16 +21520,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1"/>
@@ -22509,19 +22552,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1.0</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>92</v>
+      <c r="B2" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
